--- a/methode_agiles/Burndown_Chart_Projet.xlsx
+++ b/methode_agiles/Burndown_Chart_Projet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2101440\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projet\Projet\methode_agiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B45F40-19CB-47C3-A88A-69F82ABB0B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D84C90-28EF-495A-8E7D-9EDF1A7A8696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Burndown_Chart</a:t>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1506,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methode_agiles/Burndown_Chart_Projet.xlsx
+++ b/methode_agiles/Burndown_Chart_Projet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projet\Projet\methode_agiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2101440\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D84C90-28EF-495A-8E7D-9EDF1A7A8696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5D79A-E6EA-4EE9-BE06-505BD6DF3CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,6 +1601,9 @@
       <c r="B7">
         <v>15.6</v>
       </c>
+      <c r="C7">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">

--- a/methode_agiles/Burndown_Chart_Projet.xlsx
+++ b/methode_agiles/Burndown_Chart_Projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2101440\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\projets\Projet\methode_agiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5D79A-E6EA-4EE9-BE06-505BD6DF3CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D039E84-84DA-4291-8798-EA0839F74ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,6 +391,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,9 +1198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1235,9 +1238,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1270,26 +1273,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,26 +1308,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1518,7 +1487,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,6 +1581,9 @@
       <c r="B8">
         <v>11.7</v>
       </c>
+      <c r="C8">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
